--- a/messy_aki.xlsx
+++ b/messy_aki.xlsx
@@ -1,41 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterhiggins/Documents/RCode/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16CB5F31-8EE9-C94D-A7BC-56E640455981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-31760" yWindow="12400" windowWidth="29660" windowHeight="17440" xr2:uid="{89F9A108-46D2-2745-BF47-F43D172BAB69}"/>
+    <workbookView windowWidth="23040" windowHeight="10187"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="77">
   <si>
     <t>Acute Kidney Injury (AKI) Study</t>
   </si>
@@ -52,6 +32,15 @@
     <t>dob</t>
   </si>
   <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Hispanic</t>
+  </si>
+  <si>
     <t>Admission GFR</t>
   </si>
   <si>
@@ -82,159 +71,156 @@
     <t>AV fistula</t>
   </si>
   <si>
-    <t>Race</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>Hispanic</t>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>hypotension</t>
+  </si>
+  <si>
+    <t>many granular casts</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Caucasian</t>
+  </si>
+  <si>
+    <t>Female</t>
   </si>
   <si>
     <t>Not Hispanic</t>
   </si>
   <si>
+    <t>19 but poor collection</t>
+  </si>
+  <si>
+    <t>sepsis</t>
+  </si>
+  <si>
+    <t>muddy brown casts</t>
+  </si>
+  <si>
+    <t>may 5 1970</t>
+  </si>
+  <si>
+    <t>bleeding out</t>
+  </si>
+  <si>
+    <t>many epithelial cell casts</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>norovirus diarrhea</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Af-Am</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
     <t xml:space="preserve">H </t>
   </si>
   <si>
+    <t>liver failure</t>
+  </si>
+  <si>
     <t>Hispannic</t>
   </si>
   <si>
+    <t>pneumonia sepsis</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F </t>
+  </si>
+  <si>
+    <t>line sepsis</t>
+  </si>
+  <si>
+    <t>No`</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Mixed</t>
+  </si>
+  <si>
+    <t>C diff diarrhea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M </t>
+  </si>
+  <si>
+    <t>NSAID tox</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
     <t>NH</t>
   </si>
   <si>
+    <t>burns</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>pyelo</t>
+  </si>
+  <si>
+    <t>5=11-1984</t>
+  </si>
+  <si>
+    <t>urethral obstruction</t>
+  </si>
+  <si>
+    <t>many epi cell casts</t>
+  </si>
+  <si>
+    <t>GI bleed</t>
+  </si>
+  <si>
+    <t>rare gran casts</t>
+  </si>
+  <si>
+    <t>WHITE</t>
+  </si>
+  <si>
+    <t>salmonella</t>
+  </si>
+  <si>
+    <t>rare granular casts</t>
+  </si>
+  <si>
+    <t>esophageal varices</t>
+  </si>
+  <si>
     <t>Hisspanic</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M </t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>Caucasian</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Af-Am</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>Asian</t>
-  </si>
-  <si>
-    <t>Mixed</t>
-  </si>
-  <si>
-    <t>WHITE</t>
-  </si>
-  <si>
-    <t>hypotension</t>
-  </si>
-  <si>
-    <t>sepsis</t>
-  </si>
-  <si>
-    <t>bleeding out</t>
-  </si>
-  <si>
-    <t>norovirus diarrhea</t>
-  </si>
-  <si>
-    <t>liver failure</t>
-  </si>
-  <si>
-    <t>pneumonia sepsis</t>
-  </si>
-  <si>
-    <t>line sepsis</t>
-  </si>
-  <si>
-    <t>C diff diarrhea</t>
-  </si>
-  <si>
-    <t>NSAID tox</t>
-  </si>
-  <si>
-    <t>burns</t>
-  </si>
-  <si>
-    <t>pyelo</t>
-  </si>
-  <si>
-    <t>urethral obstruction</t>
-  </si>
-  <si>
-    <t>GI bleed</t>
-  </si>
-  <si>
-    <t>salmonella</t>
-  </si>
-  <si>
-    <t>esophageal varices</t>
-  </si>
-  <si>
     <t>dehydration</t>
   </si>
   <si>
     <t>high ostomy output</t>
   </si>
   <si>
-    <t>many granular casts</t>
-  </si>
-  <si>
-    <t>muddy brown casts</t>
-  </si>
-  <si>
-    <t>many epithelial cell casts</t>
-  </si>
-  <si>
-    <t>rare granular casts</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>No`</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>19 but poor collection</t>
-  </si>
-  <si>
-    <t>many epi cell casts</t>
-  </si>
-  <si>
-    <t>rare gran casts</t>
-  </si>
-  <si>
     <t xml:space="preserve">muddy brown </t>
   </si>
   <si>
@@ -244,34 +230,397 @@
     <t>Permission from Attending doctor</t>
   </si>
   <si>
-    <t>may 5 1970</t>
-  </si>
-  <si>
-    <t>5=11-1984</t>
+    <t>day0_gfr</t>
+  </si>
+  <si>
+    <t>day1_gfr</t>
+  </si>
+  <si>
+    <t>day2_gfr</t>
+  </si>
+  <si>
+    <t>day3_gfr</t>
+  </si>
+  <si>
+    <t>day4_gfr</t>
+  </si>
+  <si>
+    <t>day5_gfr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -279,26 +628,314 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -347,7 +984,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -380,26 +1017,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -432,23 +1052,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -590,46 +1193,43 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C4237C-FCA1-E744-908F-B50945A07518}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
+    <col min="5" max="5" width="12.4" customWidth="1"/>
     <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="21.2" customWidth="1"/>
     <col min="13" max="13" width="19.5" customWidth="1"/>
     <col min="14" max="14" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -637,60 +1237,60 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="O5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
+      <c r="P5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" t="s">
-        <v>11</v>
-      </c>
-      <c r="N5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>24787</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G6">
         <v>17</v>
@@ -711,33 +1311,33 @@
         <v>44</v>
       </c>
       <c r="M6" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="N6" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="P6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>33218</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G7">
         <v>21</v>
@@ -746,7 +1346,7 @@
         <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="J7">
         <v>12</v>
@@ -758,33 +1358,33 @@
         <v>26</v>
       </c>
       <c r="M7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="N7" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="O7" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="P7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G8">
         <v>32</v>
@@ -805,33 +1405,33 @@
         <v>24</v>
       </c>
       <c r="M8" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N8" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="P8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>3</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <v>29740</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G9">
         <v>11</v>
@@ -852,33 +1452,33 @@
         <v>13</v>
       </c>
       <c r="M9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N9" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="O9" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="P9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>4</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>30840</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G10">
         <v>15</v>
@@ -899,33 +1499,33 @@
         <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="N10" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="O10" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="P10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>5</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>29320</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="G11">
         <v>33</v>
@@ -946,33 +1546,33 @@
         <v>44</v>
       </c>
       <c r="M11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N11" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="O11" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="P11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>6</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <v>31060</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G12">
         <v>26</v>
@@ -993,33 +1593,33 @@
         <v>43</v>
       </c>
       <c r="M12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N12" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="O12" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="P12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>7</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="3">
         <v>25157</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G13">
         <v>43</v>
@@ -1040,33 +1640,33 @@
         <v>51</v>
       </c>
       <c r="M13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N13" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="O13" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="P13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>8</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="3">
         <v>30063</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G14">
         <v>55</v>
@@ -1087,33 +1687,33 @@
         <v>41</v>
       </c>
       <c r="M14" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N14" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="O14" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="P14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>8</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="3">
         <v>37906</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
         <v>26</v>
-      </c>
-      <c r="E15" t="s">
-        <v>18</v>
       </c>
       <c r="G15">
         <v>23</v>
@@ -1134,33 +1734,33 @@
         <v>14</v>
       </c>
       <c r="M15" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N15" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="O15" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="P15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>11</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="3">
         <v>30261</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G16">
         <v>18</v>
@@ -1181,33 +1781,33 @@
         <v>41</v>
       </c>
       <c r="M16" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="N16" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="O16" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="P16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>12</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="3">
         <v>29045</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G17">
         <v>21</v>
@@ -1228,33 +1828,33 @@
         <v>48</v>
       </c>
       <c r="M17" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="N17" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="O17" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="P17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G18">
         <v>19</v>
@@ -1275,33 +1875,33 @@
         <v>44</v>
       </c>
       <c r="M18" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="N18" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="O18" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="P18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>14</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="3">
         <v>38084</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G19">
         <v>26</v>
@@ -1322,33 +1922,33 @@
         <v>49</v>
       </c>
       <c r="M19" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="N19" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="O19" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="P19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>15</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="3">
         <v>32940</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G20">
         <v>36</v>
@@ -1369,33 +1969,33 @@
         <v>43</v>
       </c>
       <c r="M20" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="N20" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="O20" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="P20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>16</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="3">
         <v>30565</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G21">
         <v>27</v>
@@ -1416,33 +2016,33 @@
         <v>51</v>
       </c>
       <c r="M21" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="N21" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="O21" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="P21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>17</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="3">
         <v>31604</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G22">
         <v>39</v>
@@ -1463,33 +2063,33 @@
         <v>52</v>
       </c>
       <c r="M22" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="N22" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="O22" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="P22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>19</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="3">
         <v>31937</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G23">
         <v>22</v>
@@ -1510,33 +2110,33 @@
         <v>43</v>
       </c>
       <c r="M23" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="N23" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="O23" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="P23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>20</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="3">
         <v>28943</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="G24">
         <v>232</v>
@@ -1557,33 +2157,33 @@
         <v>33</v>
       </c>
       <c r="M24" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="N24" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="O24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="P24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25">
         <v>21</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="3">
         <v>28713</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G25">
         <v>177</v>
@@ -1601,29 +2201,1039 @@
         <v>35</v>
       </c>
       <c r="M25" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="N25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O25" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="P25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <cols>
+    <col min="2" max="2" width="11.3"/>
+    <col min="5" max="5" width="12.4" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="21.2" customWidth="1"/>
+    <col min="12" max="12" width="19.5" customWidth="1"/>
+    <col min="13" max="13" width="27.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:15">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>24787</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>17</v>
+      </c>
+      <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>22</v>
+      </c>
+      <c r="J2">
+        <v>34</v>
+      </c>
+      <c r="K2">
+        <v>44</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>33218</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3">
+        <v>21</v>
+      </c>
+      <c r="G3">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>19</v>
+      </c>
+      <c r="K3">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>32</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>15</v>
+      </c>
+      <c r="I4">
+        <v>11</v>
+      </c>
+      <c r="J4">
+        <v>15</v>
+      </c>
+      <c r="K4">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>29740</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <v>13</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>30840</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <v>11</v>
+      </c>
+      <c r="K6">
+        <v>14</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>29320</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7">
+        <v>33</v>
+      </c>
+      <c r="G7">
+        <v>23</v>
+      </c>
+      <c r="H7">
+        <v>17</v>
+      </c>
+      <c r="I7">
+        <v>26</v>
+      </c>
+      <c r="J7">
+        <v>38</v>
+      </c>
+      <c r="K7">
+        <v>44</v>
+      </c>
+      <c r="L7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>31060</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <v>26</v>
+      </c>
+      <c r="G8">
+        <v>24</v>
+      </c>
+      <c r="H8">
+        <v>19</v>
+      </c>
+      <c r="I8">
+        <v>33</v>
+      </c>
+      <c r="J8">
+        <v>39</v>
+      </c>
+      <c r="K8">
+        <v>43</v>
+      </c>
+      <c r="L8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>25157</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>43</v>
+      </c>
+      <c r="G9">
+        <v>21</v>
+      </c>
+      <c r="H9">
+        <v>26</v>
+      </c>
+      <c r="I9">
+        <v>38</v>
+      </c>
+      <c r="J9">
+        <v>47</v>
+      </c>
+      <c r="K9">
+        <v>51</v>
+      </c>
+      <c r="L9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>30063</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10">
+        <v>55</v>
+      </c>
+      <c r="G10">
+        <v>24</v>
+      </c>
+      <c r="H10">
+        <v>28</v>
+      </c>
+      <c r="I10">
+        <v>39</v>
+      </c>
+      <c r="J10">
+        <v>36</v>
+      </c>
+      <c r="K10">
+        <v>41</v>
+      </c>
+      <c r="L10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>37906</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11">
+        <v>23</v>
+      </c>
+      <c r="G11">
+        <v>11</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <v>11</v>
+      </c>
+      <c r="K11">
+        <v>14</v>
+      </c>
+      <c r="L11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>30261</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12">
+        <v>18</v>
+      </c>
+      <c r="G12">
+        <v>17</v>
+      </c>
+      <c r="H12">
+        <v>24</v>
+      </c>
+      <c r="I12">
+        <v>29</v>
+      </c>
+      <c r="J12">
+        <v>36</v>
+      </c>
+      <c r="K12">
+        <v>41</v>
+      </c>
+      <c r="L12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>29045</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13">
+        <v>21</v>
+      </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+      <c r="H13">
+        <v>28</v>
+      </c>
+      <c r="I13">
+        <v>37</v>
+      </c>
+      <c r="J13">
+        <v>44</v>
+      </c>
+      <c r="K13">
+        <v>48</v>
+      </c>
+      <c r="L13" t="s">
+        <v>55</v>
+      </c>
+      <c r="M13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14">
+        <v>19</v>
+      </c>
+      <c r="G14">
+        <v>20</v>
+      </c>
+      <c r="H14">
+        <v>23</v>
+      </c>
+      <c r="I14">
+        <v>33</v>
+      </c>
+      <c r="J14">
+        <v>39</v>
+      </c>
+      <c r="K14">
+        <v>44</v>
+      </c>
+      <c r="L14" t="s">
+        <v>57</v>
+      </c>
+      <c r="M14" t="s">
+        <v>58</v>
+      </c>
+      <c r="N14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>38084</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>26</v>
+      </c>
+      <c r="G15">
+        <v>28</v>
+      </c>
+      <c r="H15">
+        <v>32</v>
+      </c>
+      <c r="I15">
+        <v>41</v>
+      </c>
+      <c r="J15">
+        <v>44</v>
+      </c>
+      <c r="K15">
+        <v>49</v>
+      </c>
+      <c r="L15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" t="s">
+        <v>23</v>
+      </c>
+      <c r="O15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>32940</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16">
+        <v>36</v>
+      </c>
+      <c r="G16">
+        <v>322</v>
+      </c>
+      <c r="H16">
+        <v>28</v>
+      </c>
+      <c r="I16">
+        <v>36</v>
+      </c>
+      <c r="J16">
+        <v>39</v>
+      </c>
+      <c r="K16">
+        <v>43</v>
+      </c>
+      <c r="L16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" t="s">
+        <v>60</v>
+      </c>
+      <c r="N16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>30565</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17">
+        <v>27</v>
+      </c>
+      <c r="G17">
+        <v>24</v>
+      </c>
+      <c r="H17">
+        <v>29</v>
+      </c>
+      <c r="I17">
+        <v>39</v>
+      </c>
+      <c r="J17">
+        <v>47</v>
+      </c>
+      <c r="K17">
+        <v>51</v>
+      </c>
+      <c r="L17" t="s">
+        <v>62</v>
+      </c>
+      <c r="M17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" t="s">
+        <v>23</v>
+      </c>
+      <c r="O17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>31604</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18">
+        <v>39</v>
+      </c>
+      <c r="G18">
+        <v>32</v>
+      </c>
+      <c r="H18">
+        <v>37</v>
+      </c>
+      <c r="I18">
+        <v>34</v>
+      </c>
+      <c r="J18">
+        <v>48</v>
+      </c>
+      <c r="K18">
+        <v>52</v>
+      </c>
+      <c r="L18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" t="s">
+        <v>63</v>
+      </c>
+      <c r="N18" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" s="3">
+        <v>31937</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>22</v>
+      </c>
+      <c r="G19">
+        <v>20</v>
+      </c>
+      <c r="H19">
+        <v>24</v>
+      </c>
+      <c r="I19">
+        <v>24</v>
+      </c>
+      <c r="J19">
+        <v>39</v>
+      </c>
+      <c r="K19">
+        <v>43</v>
+      </c>
+      <c r="L19" t="s">
+        <v>64</v>
+      </c>
+      <c r="M19" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" t="s">
+        <v>22</v>
+      </c>
+      <c r="O19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3">
+        <v>28943</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20">
+        <v>232</v>
+      </c>
+      <c r="G20">
+        <v>19</v>
+      </c>
+      <c r="H20">
+        <v>15</v>
+      </c>
+      <c r="I20">
+        <v>18</v>
+      </c>
+      <c r="J20">
+        <v>28</v>
+      </c>
+      <c r="K20">
+        <v>33</v>
+      </c>
+      <c r="L20" t="s">
+        <v>66</v>
+      </c>
+      <c r="M20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" t="s">
+        <v>23</v>
+      </c>
+      <c r="O20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3">
+        <v>28713</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21">
+        <v>177</v>
+      </c>
+      <c r="G21">
+        <v>14</v>
+      </c>
+      <c r="H21">
+        <v>12</v>
+      </c>
+      <c r="J21">
+        <v>28</v>
+      </c>
+      <c r="K21">
+        <v>35</v>
+      </c>
+      <c r="L21" t="s">
+        <v>67</v>
+      </c>
+      <c r="M21" t="s">
+        <v>68</v>
+      </c>
+      <c r="N21" t="s">
+        <v>22</v>
+      </c>
+      <c r="O21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>